--- a/Consolidado curricular.xlsx
+++ b/Consolidado curricular.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>OBLIGATORIOS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ELECTIVO TIPO A</t>
   </si>
@@ -158,9 +155,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -186,10 +180,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -515,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:K35"/>
+  <dimension ref="A5:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,235 +525,224 @@
   </cols>
   <sheetData>
     <row r="5" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I5" s="5"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I6" s="5"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I7" s="5"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I8" s="5"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I9" s="5"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I10" s="5"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I11" s="5"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I12" s="5"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I13" s="5"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I14" s="5"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <f>C18+C22+C25+C28+C31+C34</f>
-        <v>120</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5">
-        <v>66</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="11">
+        <v>5</v>
+      </c>
+      <c r="C17" t="e">
+        <f>#REF!+C21+C24+C27+C30+C33</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10">
         <f>19+15+17+5+5</f>
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5">
         <v>5</v>
       </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="5">
-        <f>C18-C19-C20</f>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="4" t="e">
+        <f>#REF!-C18-C19</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="6">
+        <f>C21-C22</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="5">
-        <v>5</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="5">
-        <v>5</v>
-      </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="7">
-        <f>C22-C23</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="5"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="4">
+        <v>12</v>
+      </c>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5">
-        <v>12</v>
-      </c>
-      <c r="D25" s="5"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="5">
+        <f>C24-C25</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="4">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="5">
-        <v>11</v>
-      </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="6">
-        <f>C25-C26</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>4</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="6">
+        <f>C27-C28</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="4">
+        <v>30</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C31" s="4">
+        <v>18</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="5">
+        <v>12</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="K32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="7">
-        <f>C28-C29</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5">
-        <v>30</v>
-      </c>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="5">
-        <v>18</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B33" s="16"/>
       <c r="C33" s="6">
-        <v>12</v>
-      </c>
-      <c r="D33" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D33" s="4"/>
       <c r="K33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="7">
+      <c r="B34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5">
         <v>3</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="K34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="6">
-        <v>3</v>
-      </c>
-      <c r="D35" s="5"/>
+      <c r="D34" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A22:B22"/>
+  <mergeCells count="5">
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
